--- a/dane_pogodowe.xlsx
+++ b/dane_pogodowe.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,9 +602,164 @@
         <v>6.17</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45846.81348812157</v>
+        <v>45846.813488125</v>
       </c>
       <c r="I5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>296.99</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C6" t="n">
+        <v>58</v>
+      </c>
+      <c r="D6" t="n">
+        <v>297.03</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>45847.78409366898</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>296.99</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C7" t="n">
+        <v>58</v>
+      </c>
+      <c r="D7" t="n">
+        <v>297.03</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>45847.78421347222</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>296.99</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C8" t="n">
+        <v>58</v>
+      </c>
+      <c r="D8" t="n">
+        <v>297.03</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>45847.7843309375</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>296.99</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C9" t="n">
+        <v>58</v>
+      </c>
+      <c r="D9" t="n">
+        <v>297.03</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>45847.78444893518</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>296.99</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C10" t="n">
+        <v>58</v>
+      </c>
+      <c r="D10" t="n">
+        <v>297.03</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>45847.7845665171</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dane_pogodowe.xlsx
+++ b/dane_pogodowe.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,9 +757,288 @@
         <v>5.66</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45847.7845665171</v>
+        <v>45847.7845665162</v>
       </c>
       <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C11" t="n">
+        <v>57</v>
+      </c>
+      <c r="D11" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>45847.81713541667</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C12" t="n">
+        <v>57</v>
+      </c>
+      <c r="D12" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>45847.81765943287</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C13" t="n">
+        <v>57</v>
+      </c>
+      <c r="D13" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>45847.81771447917</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C14" t="n">
+        <v>57</v>
+      </c>
+      <c r="D14" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>45847.81823787037</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C15" t="n">
+        <v>57</v>
+      </c>
+      <c r="D15" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>45847.81876100694</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C16" t="n">
+        <v>57</v>
+      </c>
+      <c r="D16" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>45847.81928469907</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>23.13</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C17" t="n">
+        <v>58</v>
+      </c>
+      <c r="D17" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>45847.82246900463</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>23.13</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C18" t="n">
+        <v>58</v>
+      </c>
+      <c r="D18" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>45847.82376033565</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C19" t="n">
+        <v>57</v>
+      </c>
+      <c r="D19" t="n">
+        <v>23.14</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>45847.82428549293</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dane_pogodowe.xlsx
+++ b/dane_pogodowe.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1036,9 +1036,164 @@
         <v>16.67</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45847.82428549293</v>
+        <v>45847.82428549769</v>
       </c>
       <c r="I19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>22.35</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C20" t="n">
+        <v>62</v>
+      </c>
+      <c r="D20" t="n">
+        <v>22.43</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>45847.87250898148</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>22.35</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C21" t="n">
+        <v>62</v>
+      </c>
+      <c r="D21" t="n">
+        <v>22.43</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>45847.87290833333</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>22.35</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C22" t="n">
+        <v>62</v>
+      </c>
+      <c r="D22" t="n">
+        <v>22.43</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>45847.87302634259</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C23" t="n">
+        <v>61</v>
+      </c>
+      <c r="D23" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>45847.87314469907</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C24" t="n">
+        <v>61</v>
+      </c>
+      <c r="D24" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>45847.87326279103</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dane_pogodowe.xlsx
+++ b/dane_pogodowe.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +481,16 @@
       <c r="I1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Zwykła temperatura</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Prędkość wiatru</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -512,6 +522,8 @@
         <v>45846.80686622685</v>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -543,6 +555,8 @@
         <v>45846.80763230324</v>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -574,6 +588,8 @@
         <v>45846.80777107639</v>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -605,6 +621,8 @@
         <v>45846.813488125</v>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -636,6 +654,8 @@
         <v>45847.78409366898</v>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -667,6 +687,8 @@
         <v>45847.78421347222</v>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -698,6 +720,8 @@
         <v>45847.7843309375</v>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -729,6 +753,8 @@
         <v>45847.78444893518</v>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -760,6 +786,8 @@
         <v>45847.7845665162</v>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -791,6 +819,8 @@
         <v>45847.81713541667</v>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -822,6 +852,8 @@
         <v>45847.81765943287</v>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -853,6 +885,8 @@
         <v>45847.81771447917</v>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -884,6 +918,8 @@
         <v>45847.81823787037</v>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -915,6 +951,8 @@
         <v>45847.81876100694</v>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -946,6 +984,8 @@
         <v>45847.81928469907</v>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -977,6 +1017,8 @@
         <v>45847.82246900463</v>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1008,6 +1050,8 @@
         <v>45847.82376033565</v>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1039,6 +1083,8 @@
         <v>45847.82428549769</v>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1070,6 +1116,8 @@
         <v>45847.87250898148</v>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1101,6 +1149,8 @@
         <v>45847.87290833333</v>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1132,6 +1182,8 @@
         <v>45847.87302634259</v>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1163,6 +1215,8 @@
         <v>45847.87314469907</v>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1191,9 +1245,374 @@
         <v>16.67</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45847.87326279103</v>
+        <v>45847.87326278936</v>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>27.66</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C25" t="n">
+        <v>41</v>
+      </c>
+      <c r="D25" t="n">
+        <v>27.92</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>45855.69480626158</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>27.66</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C26" t="n">
+        <v>41</v>
+      </c>
+      <c r="D26" t="n">
+        <v>27.92</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>45855.69492596065</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>27.66</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C27" t="n">
+        <v>41</v>
+      </c>
+      <c r="D27" t="n">
+        <v>27.92</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>45855.69504425926</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.66</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C28" t="n">
+        <v>41</v>
+      </c>
+      <c r="D28" t="n">
+        <v>27.92</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>45855.69516295139</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27.69</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C29" t="n">
+        <v>41</v>
+      </c>
+      <c r="D29" t="n">
+        <v>27.95</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>45855.71675251157</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C30" t="n">
+        <v>35</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" s="2" t="n">
+        <v>45855.72438575231</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="K30" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C31" t="n">
+        <v>35</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" s="2" t="n">
+        <v>45855.72473652778</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="K31" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>27.69</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C32" t="n">
+        <v>41</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" s="2" t="n">
+        <v>45855.72512107639</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>27.95</v>
+      </c>
+      <c r="K32" t="n">
+        <v>25.92</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>27.69</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C33" t="n">
+        <v>41</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" s="2" t="n">
+        <v>45855.72524010417</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>27.95</v>
+      </c>
+      <c r="K33" t="n">
+        <v>25.92</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>27.69</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C34" t="n">
+        <v>41</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" s="2" t="n">
+        <v>45855.72535798611</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>27.95</v>
+      </c>
+      <c r="K34" t="n">
+        <v>25.92</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>27.69</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C35" t="n">
+        <v>41</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" s="2" t="n">
+        <v>45855.72547617958</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>27.95</v>
+      </c>
+      <c r="K35" t="n">
+        <v>25.92</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
